--- a/data-unused/weatherup.dus.xlsx
+++ b/data-unused/weatherup.dus.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EDC1D4-57D5-443E-BE1F-65AD0E4D3D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="444" windowWidth="14064" windowHeight="11040"/>
+    <workbookView xWindow="41985" yWindow="3975" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,13 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,14 +199,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +247,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -312,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,72 +492,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="5.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" customWidth="1"/>
+    <col min="8" max="9" width="5.1796875" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1">
         <v>5</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>6</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>7</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1">
         <v>8</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1">
         <v>9</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1">
         <v>10</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1">
         <v>11</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1">
         <v>12</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1">
         <v>13</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1">
         <v>14</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1">
         <v>15</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1">
         <v>19</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -593,8 +598,8 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -637,8 +642,8 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -681,8 +686,8 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -725,8 +730,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -769,8 +774,8 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -813,8 +818,8 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -857,8 +862,8 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -901,8 +906,8 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -945,8 +950,8 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -989,8 +994,8 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -1033,8 +1038,8 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -1077,8 +1082,8 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -1121,8 +1126,8 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -1165,8 +1170,8 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -1209,8 +1214,8 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -1253,8 +1258,8 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -1297,8 +1302,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -1341,8 +1346,8 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1385,8 +1390,8 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1429,8 +1434,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1473,8 +1478,8 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -1517,8 +1522,8 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -1561,8 +1566,8 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -1605,8 +1610,8 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -1649,8 +1654,8 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -1693,8 +1698,8 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -1737,8 +1742,8 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -1781,8 +1786,8 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -1825,8 +1830,8 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -1869,8 +1874,8 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -1913,8 +1918,8 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -1957,8 +1962,8 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -2001,8 +2006,8 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -2045,8 +2050,8 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
@@ -2089,8 +2094,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -2133,8 +2138,8 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -2177,8 +2182,8 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -2221,8 +2226,8 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -2265,8 +2270,8 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1">
@@ -2309,8 +2314,8 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1">
@@ -2353,8 +2358,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1">
